--- a/mini-prj3/email_list.xlsx
+++ b/mini-prj3/email_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burny\Documents\dev\KDT_HW\mini-prj3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\핀테크백엔드과정\과제\mini-prj3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F2CC4-08FB-4DB6-9CCC-A77B40891036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BF991F-0930-4255-BE9D-ABDEC990B457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주소록" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>번호</t>
   </si>
@@ -31,26 +31,19 @@
     <t>이메일</t>
   </si>
   <si>
-    <t>email_list</t>
-  </si>
-  <si>
-    <t>배프</t>
-  </si>
-  <si>
-    <t>beap.jg@gmail.com</t>
-  </si>
-  <si>
-    <t>송종근</t>
-  </si>
-  <si>
-    <t>masterofflash@nate.com</t>
+    <t>이성훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnyst@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -74,38 +67,25 @@
       <charset val="129"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="&quot;맑은 고딕&quot;"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -124,23 +104,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,65 +336,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{986FB3ED-E9B2-4565-AAB8-FD4089AB7483}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{AD35416C-3C97-4A92-B425-3BCD87AB30B7}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>